--- a/db/queries/predicted/SBODemoUS-Sales Opportunities-NATIVE-NATIVE-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/SBODemoUS-Sales Opportunities-NATIVE-NATIVE-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -502,16 +497,11 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tab_naturalness_modifier</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -573,14 +563,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cardgroup'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'maxsumloc'}, {'table source item': '1'}, {'table': 'oopr'}, {'group by': '1'}, {'column': 'cardgroup'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -642,14 +627,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'prcnprof'}, {'select element': '1'}, {'column': 'sumprofl'}, {'select element': '1'}, {'column': 'sumprofs'}, {'table source item': '1'}, {'table': 'oopr'}, {'where': '1'}, {'predicate': '1'}, {'column': 'status'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -711,14 +691,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'opprid'}, {'select element': '1'}, {'column': 'cardcode'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'closeprcnt'}, {'table source item': '1'}, {'table': 'oopr'}, {'join': '1'}, {'table source item': '1'}, {'table': 'opr1'}, {'predicate': '1'}, {'column': 'opprid'}, {'column': 'opprid'}, {'group by': '1'}, {'column': 'opprid'}, {'group by': '1'}, {'column': 'cardcode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -780,14 +755,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'wtsumloc'}, {'select element': '1'}, {'column': 'wtsumsys'}, {'table source item': '1'}, {'table': 'opr1'}, {'where': '1'}, {'predicate': '1'}, {'column': 'date'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -849,14 +819,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'prccode'}, {'select element': '1'}, {'column': 'prcname'}, {'select element': '1'}, {'column': 'balance'}, {'select element': '1'}, {'column': 'datasource'}, {'table source item': '1'}, {'table': 'oprc'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'active'}, {'predicate': '1'}, {'column': 'date'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -918,14 +883,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cardname'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'realsumloc'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'realsumsys'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'realprofs'}, {'select element': '1'}, {'function': 'sum'}, {'column': 'realprofl'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'cloprcnt'}, {'table source item': '1'}, {'table': 'oopr'}, {'group by': '1'}, {'column': 'cardname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -987,14 +947,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'opendate'}, {'select element': '1'}, {'column': 'closedate'}, {'table source item': '1'}, {'table': 'opr1'}, {'where': '1'}, {'predicate': '1'}, {'column': 'closeprcnt'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1056,14 +1011,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'status'}, {'select element': '1'}, {'function': 'max'}, {'column': 'opendate'}, {'table source item': '1'}, {'table': 'oopr'}, {'group by': '1'}, {'column': 'status'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1125,14 +1075,9 @@
           <t>NATIVE</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'dimcode'}, {'table source item': '1'}, {'table': 'oprc'}, {'where': '1'}, {'predicate': '1'}, {'column': 'prcname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1192,11 +1137,6 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>NATIVE</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'sumprofl'}, {'table source item': '1'}, {'table': 'oopr'}, {'group by': '1'}]</t>
         </is>
       </c>
     </row>
